--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.793</v>
+        <v>1.726</v>
       </c>
       <c r="C2" t="n">
-        <v>1.531</v>
+        <v>1.768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.964</v>
+        <v>0.916</v>
       </c>
       <c r="E2" t="n">
-        <v>2.075</v>
+        <v>1.933</v>
       </c>
       <c r="F2" t="n">
-        <v>1.496</v>
+        <v>1.215</v>
       </c>
       <c r="G2" t="n">
-        <v>1.947</v>
+        <v>1.964</v>
       </c>
       <c r="H2" t="n">
-        <v>1.88</v>
+        <v>2.054</v>
       </c>
       <c r="I2" t="n">
-        <v>0.926</v>
+        <v>0.824</v>
       </c>
       <c r="J2" t="n">
-        <v>1.628</v>
+        <v>1.804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.259</v>
+        <v>1.035</v>
       </c>
       <c r="L2" t="n">
-        <v>1.391</v>
+        <v>1.635</v>
       </c>
       <c r="M2" t="n">
-        <v>0.856</v>
+        <v>0.994</v>
       </c>
       <c r="N2" t="n">
-        <v>0.878</v>
+        <v>0.895</v>
       </c>
       <c r="O2" t="n">
-        <v>1.127</v>
+        <v>0.919</v>
       </c>
       <c r="P2" t="n">
-        <v>0.697</v>
+        <v>0.713</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.555</v>
+        <v>1.282</v>
       </c>
       <c r="R2" t="n">
-        <v>0.98</v>
+        <v>0.882</v>
       </c>
       <c r="S2" t="n">
-        <v>0.627</v>
+        <v>0.605</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="U2" t="n">
-        <v>0.569</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.38</v>
+        <v>4.944</v>
       </c>
       <c r="C3" t="n">
-        <v>3.454</v>
+        <v>4.623</v>
       </c>
       <c r="D3" t="n">
-        <v>1.498</v>
+        <v>1.363</v>
       </c>
       <c r="E3" t="n">
-        <v>7.133</v>
+        <v>6.08</v>
       </c>
       <c r="F3" t="n">
-        <v>3.526</v>
+        <v>2.416</v>
       </c>
       <c r="G3" t="n">
-        <v>6.68</v>
+        <v>6.441</v>
       </c>
       <c r="H3" t="n">
-        <v>5.257</v>
+        <v>6.775</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.184</v>
       </c>
       <c r="J3" t="n">
-        <v>4.549</v>
+        <v>5.825</v>
       </c>
       <c r="K3" t="n">
-        <v>2.839</v>
+        <v>1.771</v>
       </c>
       <c r="L3" t="n">
-        <v>3.405</v>
+        <v>4.944</v>
       </c>
       <c r="M3" t="n">
-        <v>1.463</v>
+        <v>2.186</v>
       </c>
       <c r="N3" t="n">
-        <v>1.471</v>
+        <v>1.508</v>
       </c>
       <c r="O3" t="n">
-        <v>2.185</v>
+        <v>1.355</v>
       </c>
       <c r="P3" t="n">
-        <v>0.871</v>
+        <v>0.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.092</v>
+        <v>3.246</v>
       </c>
       <c r="R3" t="n">
-        <v>1.698</v>
+        <v>1.483</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.649</v>
       </c>
       <c r="T3" t="n">
-        <v>1.591</v>
+        <v>0.544</v>
       </c>
       <c r="U3" t="n">
-        <v>0.646</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="4">
@@ -676,64 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452</v>
+        <v>0.271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.289</v>
+        <v>0.388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.544</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.755</v>
+        <v>0.77</v>
       </c>
       <c r="H4" t="n">
-        <v>0.383</v>
+        <v>0.221</v>
       </c>
       <c r="I4" t="n">
-        <v>0.394</v>
+        <v>0.495</v>
       </c>
       <c r="J4" t="n">
-        <v>0.552</v>
+        <v>0.425</v>
       </c>
       <c r="K4" t="n">
-        <v>0.499</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.91</v>
+        <v>0.868</v>
       </c>
       <c r="M4" t="n">
-        <v>0.838</v>
+        <v>0.758</v>
       </c>
       <c r="N4" t="n">
-        <v>0.603</v>
+        <v>0.588</v>
       </c>
       <c r="O4" t="n">
-        <v>0.846</v>
+        <v>0.906</v>
       </c>
       <c r="P4" t="n">
-        <v>0.891</v>
+        <v>0.885</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.902</v>
+        <v>0.924</v>
       </c>
       <c r="R4" t="n">
-        <v>0.845</v>
+        <v>0.864</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.827</v>
       </c>
       <c r="T4" t="n">
-        <v>0.902</v>
+        <v>0.967</v>
       </c>
       <c r="U4" t="n">
-        <v>0.897</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="5">

--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.726</v>
+        <v>1.842</v>
       </c>
       <c r="C2" t="n">
-        <v>1.768</v>
+        <v>1.669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.916</v>
+        <v>1.026</v>
       </c>
       <c r="E2" t="n">
-        <v>1.933</v>
+        <v>1.745</v>
       </c>
       <c r="F2" t="n">
-        <v>1.215</v>
+        <v>1.515</v>
       </c>
       <c r="G2" t="n">
-        <v>1.964</v>
+        <v>1.809</v>
       </c>
       <c r="H2" t="n">
-        <v>2.054</v>
+        <v>1.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0.824</v>
+        <v>0.964</v>
       </c>
       <c r="J2" t="n">
-        <v>1.804</v>
+        <v>1.566</v>
       </c>
       <c r="K2" t="n">
-        <v>1.035</v>
+        <v>1.359</v>
       </c>
       <c r="L2" t="n">
-        <v>1.635</v>
+        <v>1.802</v>
       </c>
       <c r="M2" t="n">
-        <v>0.994</v>
+        <v>1.079</v>
       </c>
       <c r="N2" t="n">
-        <v>0.895</v>
+        <v>0.874</v>
       </c>
       <c r="O2" t="n">
-        <v>0.919</v>
+        <v>0.999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.713</v>
+        <v>0.785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.282</v>
+        <v>1.558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.882</v>
+        <v>0.951</v>
       </c>
       <c r="S2" t="n">
-        <v>0.605</v>
+        <v>0.555</v>
       </c>
       <c r="T2" t="n">
-        <v>0.578</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.944</v>
+        <v>5.185</v>
       </c>
       <c r="C3" t="n">
-        <v>4.623</v>
+        <v>4.531</v>
       </c>
       <c r="D3" t="n">
-        <v>1.363</v>
+        <v>1.594</v>
       </c>
       <c r="E3" t="n">
-        <v>6.08</v>
+        <v>5.522</v>
       </c>
       <c r="F3" t="n">
-        <v>2.416</v>
+        <v>3.695</v>
       </c>
       <c r="G3" t="n">
-        <v>6.441</v>
+        <v>5.509</v>
       </c>
       <c r="H3" t="n">
-        <v>6.775</v>
+        <v>5.415</v>
       </c>
       <c r="I3" t="n">
-        <v>1.184</v>
+        <v>1.602</v>
       </c>
       <c r="J3" t="n">
-        <v>5.825</v>
+        <v>4.226</v>
       </c>
       <c r="K3" t="n">
-        <v>1.771</v>
+        <v>3.01</v>
       </c>
       <c r="L3" t="n">
-        <v>4.944</v>
+        <v>5.932</v>
       </c>
       <c r="M3" t="n">
-        <v>2.186</v>
+        <v>2.453</v>
       </c>
       <c r="N3" t="n">
-        <v>1.508</v>
+        <v>1.39</v>
       </c>
       <c r="O3" t="n">
-        <v>1.355</v>
+        <v>1.723</v>
       </c>
       <c r="P3" t="n">
-        <v>0.95</v>
+        <v>1.129</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.246</v>
+        <v>4.277</v>
       </c>
       <c r="R3" t="n">
-        <v>1.483</v>
+        <v>1.754</v>
       </c>
       <c r="S3" t="n">
-        <v>0.649</v>
+        <v>0.578</v>
       </c>
       <c r="T3" t="n">
-        <v>0.544</v>
+        <v>0.777</v>
       </c>
       <c r="U3" t="n">
-        <v>0.455</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="4">
@@ -676,64 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.271</v>
+        <v>0.301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.275</v>
+        <v>0.126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.388</v>
+        <v>0.499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.77</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.221</v>
+        <v>0.366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.495</v>
+        <v>0.329</v>
       </c>
       <c r="J4" t="n">
-        <v>0.425</v>
+        <v>0.594</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.868</v>
+        <v>0.841</v>
       </c>
       <c r="M4" t="n">
-        <v>0.758</v>
+        <v>0.727</v>
       </c>
       <c r="N4" t="n">
-        <v>0.588</v>
+        <v>0.619</v>
       </c>
       <c r="O4" t="n">
-        <v>0.906</v>
+        <v>0.879</v>
       </c>
       <c r="P4" t="n">
-        <v>0.885</v>
+        <v>0.858</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.924</v>
+        <v>0.897</v>
       </c>
       <c r="R4" t="n">
-        <v>0.864</v>
+        <v>0.837</v>
       </c>
       <c r="S4" t="n">
-        <v>0.827</v>
+        <v>0.842</v>
       </c>
       <c r="T4" t="n">
-        <v>0.967</v>
+        <v>0.952</v>
       </c>
       <c r="U4" t="n">
-        <v>0.928</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="5">
@@ -746,37 +746,37 @@
         <v>7.8</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>6.554</v>
       </c>
       <c r="D5" t="n">
-        <v>2.112</v>
+        <v>2.113</v>
       </c>
       <c r="E5" t="n">
         <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>3.476</v>
+        <v>3.478</v>
       </c>
       <c r="G5" t="n">
-        <v>8.257999999999999</v>
+        <v>8.243</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9</v>
+        <v>7.907</v>
       </c>
       <c r="I5" t="n">
-        <v>1.382</v>
+        <v>1.383</v>
       </c>
       <c r="J5" t="n">
-        <v>3.576</v>
+        <v>3.581</v>
       </c>
       <c r="K5" t="n">
-        <v>3.739</v>
+        <v>3.744</v>
       </c>
       <c r="L5" t="n">
         <v>8.965999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>7.566</v>
+        <v>7.567</v>
       </c>
       <c r="N5" t="n">
         <v>1.936</v>
@@ -785,7 +785,7 @@
         <v>3.574</v>
       </c>
       <c r="P5" t="n">
-        <v>3.973</v>
+        <v>3.974</v>
       </c>
       <c r="Q5" t="n">
         <v>9.153</v>
@@ -797,7 +797,7 @@
         <v>1.617</v>
       </c>
       <c r="T5" t="n">
-        <v>3.829</v>
+        <v>3.83</v>
       </c>
       <c r="U5" t="n">
         <v>4.192</v>
@@ -810,55 +810,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.21599999999999</v>
+        <v>86.279</v>
       </c>
       <c r="C6" t="n">
-        <v>57.592</v>
+        <v>57.562</v>
       </c>
       <c r="D6" t="n">
-        <v>7.554</v>
+        <v>7.565</v>
       </c>
       <c r="E6" t="n">
         <v>13.266</v>
       </c>
       <c r="F6" t="n">
-        <v>16.576</v>
+        <v>16.591</v>
       </c>
       <c r="G6" t="n">
-        <v>95.65600000000001</v>
+        <v>95.313</v>
       </c>
       <c r="H6" t="n">
-        <v>76.218</v>
+        <v>76.364</v>
       </c>
       <c r="I6" t="n">
-        <v>2.855</v>
+        <v>2.859</v>
       </c>
       <c r="J6" t="n">
-        <v>16.878</v>
+        <v>16.923</v>
       </c>
       <c r="K6" t="n">
-        <v>18.917</v>
+        <v>18.964</v>
       </c>
       <c r="L6" t="n">
-        <v>106.42</v>
+        <v>106.423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.816</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>6.213</v>
+        <v>6.214</v>
       </c>
       <c r="O6" t="n">
-        <v>16.81</v>
+        <v>16.811</v>
       </c>
       <c r="P6" t="n">
-        <v>20.985</v>
+        <v>20.987</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.718</v>
+        <v>111.72</v>
       </c>
       <c r="R6" t="n">
-        <v>86.545</v>
+        <v>86.539</v>
       </c>
       <c r="S6" t="n">
         <v>3.766</v>
@@ -867,7 +867,7 @@
         <v>19.282</v>
       </c>
       <c r="U6" t="n">
-        <v>22.675</v>
+        <v>22.673</v>
       </c>
     </row>
     <row r="7">
@@ -877,64 +877,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.028</v>
+        <v>-2.147</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.5</v>
+        <v>-8.102</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.93</v>
+        <v>-3.386</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.451</v>
+        <v>-0.239</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.13</v>
+        <v>-1.158</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.426</v>
+        <v>-2.281</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.313000000000001</v>
+        <v>-8.212999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.216</v>
+        <v>-0.193</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.502</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.536</v>
+        <v>-2.351</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.838</v>
+        <v>-1.84</v>
       </c>
       <c r="M7" t="n">
-        <v>-6.956</v>
+        <v>-6.979</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.751</v>
+        <v>-0.735</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.169</v>
+        <v>-0.157</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.599</v>
+        <v>-1.585</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.636</v>
+        <v>-1.627</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.093</v>
+        <v>-7.082</v>
       </c>
       <c r="S7" t="n">
         <v>-0.006</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.171</v>
+        <v>-0.181</v>
       </c>
       <c r="U7" t="n">
-        <v>-2.639</v>
+        <v>-2.616</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,81 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,63 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.842</v>
+        <v>1.558</v>
       </c>
       <c r="C2" t="n">
-        <v>1.669</v>
+        <v>0.951</v>
       </c>
       <c r="D2" t="n">
-        <v>1.026</v>
+        <v>0.555</v>
       </c>
       <c r="E2" t="n">
-        <v>1.745</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1.515</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.566</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.558</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="U2" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -609,63 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.185</v>
+        <v>4.277</v>
       </c>
       <c r="C3" t="n">
-        <v>4.531</v>
+        <v>1.754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.594</v>
+        <v>0.578</v>
       </c>
       <c r="E3" t="n">
-        <v>5.522</v>
+        <v>0.777</v>
       </c>
       <c r="F3" t="n">
-        <v>3.695</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.509</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.415</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.602</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.226</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.453</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.129</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.277</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="U3" t="n">
         <v>0.576</v>
       </c>
     </row>
@@ -676,63 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301</v>
+        <v>0.837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126</v>
+        <v>0.842</v>
       </c>
       <c r="E4" t="n">
-        <v>0.499</v>
+        <v>0.952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="U4" t="n">
         <v>0.909</v>
       </c>
     </row>
@@ -743,63 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>9.153</v>
       </c>
       <c r="C5" t="n">
-        <v>6.554</v>
+        <v>8.581</v>
       </c>
       <c r="D5" t="n">
-        <v>2.113</v>
+        <v>1.617</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>3.83</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.243</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.907</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.383</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.581</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.965999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.567</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.936</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.574</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.153</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8.581</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="U5" t="n">
         <v>4.192</v>
       </c>
     </row>
@@ -810,63 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>111.72</v>
       </c>
       <c r="C6" t="n">
-        <v>57.562</v>
+        <v>86.539</v>
       </c>
       <c r="D6" t="n">
-        <v>7.565</v>
+        <v>3.766</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>19.282</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>95.313</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.364</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.859</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.923</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.964</v>
-      </c>
-      <c r="L6" t="n">
-        <v>106.423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.214</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16.811</v>
-      </c>
-      <c r="P6" t="n">
-        <v>20.987</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>111.72</v>
-      </c>
-      <c r="R6" t="n">
-        <v>86.539</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="T6" t="n">
-        <v>19.282</v>
-      </c>
-      <c r="U6" t="n">
         <v>22.673</v>
       </c>
     </row>
@@ -877,63 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.147</v>
+        <v>-1.627</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.102</v>
+        <v>-7.082</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.386</v>
+        <v>-0.006</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.239</v>
+        <v>-0.181</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2.281</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-8.212999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.193</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.5610000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-2.351</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-6.979</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.735</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-0.157</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1.585</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-1.627</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-7.082</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.181</v>
-      </c>
-      <c r="U7" t="n">
         <v>-2.616</v>
       </c>
     </row>

--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.558</v>
+        <v>1.961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.951</v>
+        <v>1.068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.555</v>
+        <v>0.668</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.55</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.277</v>
+        <v>2.45</v>
       </c>
       <c r="C3" t="n">
-        <v>1.754</v>
+        <v>1.412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.578</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.777</v>
+        <v>1.064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.576</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.897</v>
+        <v>6.394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.837</v>
+        <v>2.117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.842</v>
+        <v>0.841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.952</v>
+        <v>1.155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.909</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.153</v>
+        <v>0.844</v>
       </c>
       <c r="C5" t="n">
-        <v>8.581</v>
+        <v>0.804</v>
       </c>
       <c r="D5" t="n">
-        <v>1.617</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>3.83</v>
+        <v>0.929</v>
       </c>
       <c r="F5" t="n">
-        <v>4.192</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.72</v>
+        <v>9.153</v>
       </c>
       <c r="C6" t="n">
-        <v>86.539</v>
+        <v>8.581</v>
       </c>
       <c r="D6" t="n">
-        <v>3.766</v>
+        <v>1.617</v>
       </c>
       <c r="E6" t="n">
-        <v>19.282</v>
+        <v>3.83</v>
       </c>
       <c r="F6" t="n">
-        <v>22.673</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.565</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.298</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>111.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.539</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.282</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.673</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-1.627</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-7.082</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.006</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.181</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-2.616</v>
       </c>
     </row>

--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.961</v>
+        <v>1.519</v>
       </c>
       <c r="C2" t="n">
-        <v>1.068</v>
+        <v>0.901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.668</v>
+        <v>0.663</v>
       </c>
       <c r="E2" t="n">
-        <v>0.833</v>
+        <v>0.86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.45</v>
+        <v>1.983</v>
       </c>
       <c r="C3" t="n">
-        <v>1.412</v>
+        <v>1.247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.883</v>
       </c>
       <c r="E3" t="n">
-        <v>1.064</v>
+        <v>1.098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.884</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.394</v>
+        <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>2.117</v>
+        <v>1.566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.841</v>
+        <v>0.79</v>
       </c>
       <c r="E4" t="n">
-        <v>1.155</v>
+        <v>1.326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.824</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.844</v>
+        <v>0.904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.804</v>
+        <v>0.854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>0.786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.929</v>
+        <v>0.916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.868</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.519</v>
+        <v>1.508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.901</v>
+        <v>0.875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.663</v>
+        <v>0.739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.86</v>
+        <v>0.793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.588</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.983</v>
+        <v>1.995</v>
       </c>
       <c r="C3" t="n">
-        <v>1.247</v>
+        <v>1.174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.883</v>
+        <v>0.972</v>
       </c>
       <c r="E3" t="n">
-        <v>1.098</v>
+        <v>1.002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.863</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.04</v>
+        <v>4.033</v>
       </c>
       <c r="C4" t="n">
-        <v>1.566</v>
+        <v>1.396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.967</v>
       </c>
       <c r="E4" t="n">
-        <v>1.326</v>
+        <v>1.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.749</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.854</v>
+        <v>0.868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786</v>
+        <v>0.737</v>
       </c>
       <c r="E5" t="n">
-        <v>0.916</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.881</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="6">
